--- a/target/test-classes/testdata/TestData.xlsx
+++ b/target/test-classes/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D825961E-25B8-45C6-90AB-2882F4218FCF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED3FE9-A35C-49CD-B490-43FFA1788FD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="2955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="2955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="One-way" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -480,12 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64D6F29-2C0A-4B04-8FA8-EE32F626725A}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
